--- a/data/线上用户反馈回复.xlsx
+++ b/data/线上用户反馈回复.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196008BD-B0C6-2A42-B7C1-939E87E0F138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5388363-3635-BF47-947B-B355EE69AF58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37100" yWindow="4040" windowWidth="38400" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="4040" windowWidth="38400" windowHeight="20160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="领域1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>数据填写人姓名</t>
   </si>
@@ -320,6 +320,22 @@
   </si>
   <si>
     <t>数据填写人姓名可以为空</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄是什么颜色的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟的番茄是红色的，不成熟的是绿色的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发芽土豆因含有有毒物质龙葵素而不能吃，同样发青的土豆也含有同样物质，是不能食用的。 有的土豆不但皮青，连里边的肉也是青色，如果食用，会引起中毒。 龙葵素能使机体红细胞破坏，严重时会引起脑水肿、胃肠黏膜发炎、眼结膜炎，出现呕吐、腹泻、头痛、发热，甚至抽搐昏迷。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发芽的土豆可以吃吗</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -687,8 +703,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2254,8 +2270,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2341,8 +2357,12 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="D5" s="18"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -2350,8 +2370,12 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">

--- a/data/线上用户反馈回复.xlsx
+++ b/data/线上用户反馈回复.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5388363-3635-BF47-947B-B355EE69AF58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196008BD-B0C6-2A42-B7C1-939E87E0F138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="4040" windowWidth="38400" windowHeight="20160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37100" yWindow="4040" windowWidth="38400" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="领域1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
   <si>
     <t>数据填写人姓名</t>
   </si>
@@ -320,22 +320,6 @@
   </si>
   <si>
     <t>数据填写人姓名可以为空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄是什么颜色的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成熟的番茄是红色的，不成熟的是绿色的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发芽土豆因含有有毒物质龙葵素而不能吃，同样发青的土豆也含有同样物质，是不能食用的。 有的土豆不但皮青，连里边的肉也是青色，如果食用，会引起中毒。 龙葵素能使机体红细胞破坏，严重时会引起脑水肿、胃肠黏膜发炎、眼结膜炎，出现呕吐、腹泻、头痛、发热，甚至抽搐昏迷。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发芽的土豆可以吃吗</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -703,8 +687,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2270,8 +2254,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2357,12 +2341,8 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="18"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -2370,12 +2350,8 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>100</v>
-      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">

--- a/data/线上用户反馈回复.xlsx
+++ b/data/线上用户反馈回复.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5388363-3635-BF47-947B-B355EE69AF58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6531811-2FEC-EE4A-B4A9-256FB655C9CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="4040" windowWidth="38400" windowHeight="20160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="领域1" sheetId="2" r:id="rId1"/>
     <sheet name="领域2" sheetId="9" r:id="rId2"/>
     <sheet name="领域3" sheetId="10" r:id="rId3"/>
-    <sheet name="同义词" sheetId="3" r:id="rId4"/>
-    <sheet name="词典" sheetId="5" r:id="rId5"/>
-    <sheet name="停用词" sheetId="6" r:id="rId6"/>
+    <sheet name="领域4" sheetId="12" r:id="rId4"/>
+    <sheet name="同义词" sheetId="3" r:id="rId5"/>
+    <sheet name="词典" sheetId="5" r:id="rId6"/>
+    <sheet name="停用词" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>数据填写人姓名</t>
   </si>
@@ -54,288 +55,279 @@
     <t>同义问题6</t>
   </si>
   <si>
+    <t>原义词</t>
+  </si>
+  <si>
+    <t>同义词</t>
+  </si>
+  <si>
+    <t>同城</t>
+  </si>
+  <si>
+    <t>当地</t>
+  </si>
+  <si>
+    <t>停用词</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>一下</t>
+  </si>
+  <si>
+    <t>么</t>
+  </si>
+  <si>
+    <t>么么哒</t>
+  </si>
+  <si>
+    <t>了</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>再见</t>
+  </si>
+  <si>
+    <t>吗</t>
+  </si>
+  <si>
+    <t>吧</t>
+  </si>
+  <si>
+    <t>呢</t>
+  </si>
+  <si>
+    <t>哈</t>
+  </si>
+  <si>
+    <t>装修日记</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>同义问题的数量没有限制，可以不止6个。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据填写人姓名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据填写人姓名可以为空</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄是什么颜色的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发芽土豆因含有有毒物质龙葵素而不能吃，同样发青的土豆也含有同样物质，是不能食用的。 有的土豆不但皮青，连里边的肉也是青色，如果食用，会引起中毒。 龙葵素能使机体红细胞破坏，严重时会引起脑水肿、胃肠黏膜发炎、眼结膜炎，出现呕吐、腹泻、头痛、发热，甚至抽搐昏迷。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发芽的土豆可以吃吗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约安装提前3-5个工作日联系方太售后服务热线：952315</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐忠杰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王得祥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛少普</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>住友你好，我们对你反馈的问题非常重视，希望能够与你进一步沟通了解具体情况。请输入“人工服务”后，留下你的联系方式，我们的工作人员将与你取得联系。非常你对好好住的关注和支持。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗图问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好。点击认证设计师头像，进入TA的个人主页，点击左下角「评价」即可进行评价。此外，设计师的荣耀值是根据设计师的站内数据综合计算，无法直接打分的哦。感谢你的支持。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何评价设计师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可在登录界面，密码登录，使用找回密码功能进行验证。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记原始密码如何修改密码？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>住友你好，删除的文章不支持再次查看哟。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么查看自己删除的文章？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>肖轶超</t>
-  </si>
-  <si>
-    <t>住友您好，感谢您提出的功能需求！我们已将您的提议反馈给产品技术团队，在之后的产品优化中我们会逐渐完善产品功能， 感谢您对好好住的支持 : ) 爱你的好好住！</t>
-  </si>
-  <si>
-    <t>iPad Pro</t>
-  </si>
-  <si>
-    <t>iPad</t>
-  </si>
-  <si>
-    <t>是否支持暗黑模式或夜间模式</t>
-  </si>
-  <si>
-    <t>app有没有夜间模式？</t>
-  </si>
-  <si>
-    <t>夜间模式</t>
-  </si>
-  <si>
-    <t>您好，可以前往「首页-推荐-找设计师」筛选你所在的地区，寻找感兴趣的设计师，跟ta聊聊吧~</t>
-  </si>
-  <si>
-    <t>如何找设计师</t>
-  </si>
-  <si>
-    <t>按地区找设计师</t>
-  </si>
-  <si>
-    <t>设计师可以选择同城吗</t>
-  </si>
-  <si>
-    <t>住友你好，我们对你反馈的问题非常重视，希望能够与你进一步沟通了解具体情况。请输入“人工服务”后，留下你的联系方式，我们的工作人员将与你取得联系。非常你对好好住的关注和支持。</t>
-  </si>
-  <si>
-    <t>投诉</t>
-  </si>
-  <si>
-    <t>盗用</t>
-  </si>
-  <si>
-    <t>盗图</t>
-  </si>
-  <si>
-    <t>入驻</t>
-  </si>
-  <si>
-    <t>历史推送</t>
-  </si>
-  <si>
-    <t>装修记录</t>
-  </si>
-  <si>
-    <t>装修待办</t>
-  </si>
-  <si>
-    <t>你好。点击认证设计师头像，进入TA的个人主页，点击左下角「评价」即可进行评价。此外，设计师的荣耀值是根据设计师的站内数据综合计算，无法直接打分的哦。感谢你的支持。</t>
-  </si>
-  <si>
-    <t>如何评价设计师</t>
-  </si>
-  <si>
-    <t>忘记原始密码如何修改密码？</t>
-  </si>
-  <si>
-    <t>怎么查看自己删除的文章？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>明星住友徽章要求获赞与收藏数达到10000次才可以获得</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>获取明星住友徽章的要求</t>
-  </si>
-  <si>
-    <t>住友你好，装修信息中的预算可以修改哦。</t>
-  </si>
-  <si>
-    <t>预算是否可以修改</t>
-  </si>
-  <si>
-    <t>查看所有用户发的视频</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>你好，可以登录好好住官网，再次点击提交设计师认证资料，即可重新修改哟；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>怎样把个人设计师转成机构设计师</t>
-  </si>
-  <si>
-    <t>投诉问题</t>
-  </si>
-  <si>
-    <t>盗图问题</t>
-  </si>
-  <si>
-    <t>您可在登录界面，密码登录，使用找回密码功能进行验证。</t>
-  </si>
-  <si>
-    <t>住友你好，删除的文章不支持再次查看哟。</t>
-  </si>
-  <si>
-    <t>你好，我们已收到你的反馈，该功能正在升级中，建议关注好好住更新，感谢对好好住的支持和关注。</t>
-  </si>
-  <si>
-    <t>原义词</t>
-  </si>
-  <si>
-    <t>同义词</t>
-  </si>
-  <si>
-    <t>平板</t>
-  </si>
-  <si>
-    <t>平板电脑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约安装提前3-5个工作日联系老板电器全国统一服务热线【95105855 或者 0571-86281080</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约安装电话</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何预约安装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以提供送货入户服务，如果快递不送，请拨打0571-89170691，我们会和快递公司沟通</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否送货入户</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>油烟机5年，电机10年，灶具1年，主要部件3年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟灶质保多久</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>列6</t>
+  </si>
+  <si>
+    <t>列7</t>
+  </si>
+  <si>
+    <t>列8</t>
+  </si>
+  <si>
+    <t>列9</t>
+  </si>
+  <si>
+    <t>止逆阀需要在安装师傅那边购买的 ，提供免费预埋烟管服务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装费用包括止逆阀的安装费用吗？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>止逆阀是否需要单独购买</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自购买之日起，最长可以延期30天发货</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最晚发货时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暗黑模式</t>
-  </si>
-  <si>
-    <t>同城</t>
-  </si>
-  <si>
-    <t>当地</t>
-  </si>
-  <si>
-    <t>维权</t>
-  </si>
-  <si>
-    <t>申请</t>
-  </si>
-  <si>
-    <t>入住</t>
-  </si>
-  <si>
-    <t>认证</t>
-  </si>
-  <si>
-    <t>往期推送</t>
-  </si>
-  <si>
-    <t>装修日记</t>
-  </si>
-  <si>
-    <t>装修记账</t>
-  </si>
-  <si>
-    <t>账号</t>
-  </si>
-  <si>
-    <t>账户</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨女无瓜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>马铃薯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>番茄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>用户字典</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>好好住</t>
-  </si>
-  <si>
-    <t>停用词</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>一下</t>
-  </si>
-  <si>
-    <t>么</t>
-  </si>
-  <si>
-    <t>么么哒</t>
-  </si>
-  <si>
-    <t>了</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>再见</t>
-  </si>
-  <si>
-    <t>吗</t>
-  </si>
-  <si>
-    <t>吧</t>
-  </si>
-  <si>
-    <t>呢</t>
-  </si>
-  <si>
-    <t>哈</t>
-  </si>
-  <si>
-    <t>预约安装提前3-5个工作日联系老板电器全国统一服务热线【95105855 或者 0571-86281080</t>
-  </si>
-  <si>
-    <t>预约安装电话</t>
-  </si>
-  <si>
-    <t>如何预约安装</t>
-  </si>
-  <si>
-    <t>售后电话</t>
-  </si>
-  <si>
-    <t>可以提供送货入户服务，如果快递不送，请拨打0571-89170691，我们会和快递公司沟通</t>
-  </si>
-  <si>
-    <t>是否送货入户</t>
-  </si>
-  <si>
-    <t>油烟机5年，电机10年，灶具1年，主要部件3年</t>
-  </si>
-  <si>
-    <t>烟灶质保多久</t>
-  </si>
-  <si>
-    <t>三包</t>
-  </si>
-  <si>
-    <t>保质期</t>
-  </si>
-  <si>
-    <t>预约安装提前3-5个工作日联系方太售后服务热线：952315</t>
-  </si>
-  <si>
-    <t>止逆阀需要在安装师傅那边购买的 ，提供免费预埋烟管服务</t>
-  </si>
-  <si>
-    <t>安装费用包括止逆阀的安装费用吗？</t>
-  </si>
-  <si>
-    <t>止逆阀是否需要单独购买</t>
-  </si>
-  <si>
-    <t>自购买之日起，最长可以延期30天发货</t>
-  </si>
-  <si>
-    <t>最晚发货时间</t>
-  </si>
-  <si>
-    <t>如何查找当地的设计师</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修日记</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>同义问题的数量没有限制，可以不止6个。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据填写人姓名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据填写人姓名可以为空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄是什么颜色的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成熟的番茄是红色的，不成熟的是绿色的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发芽土豆因含有有毒物质龙葵素而不能吃，同样发青的土豆也含有同样物质，是不能食用的。 有的土豆不但皮青，连里边的肉也是青色，如果食用，会引起中毒。 龙葵素能使机体红细胞破坏，严重时会引起脑水肿、胃肠黏膜发炎、眼结膜炎，出现呕吐、腹泻、头痛、发热，甚至抽搐昏迷。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发芽的土豆可以吃吗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟的番茄是红色的，不成熟的番茄是绿色的</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -385,6 +377,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -425,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -479,15 +491,798 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -498,6 +1293,78 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3CCAFB-4028-7441-BCD9-18E76DAA0728}" name="表1" displayName="表1" ref="A1:I7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="35">
+  <autoFilter ref="A1:I7" xr:uid="{13999831-7C05-D64B-937C-9952A92B703D}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B1271BFA-174D-4C40-93CF-E6806AA635DB}" name="数据填写人姓名" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{05BAB7DB-813A-7A45-A284-134669A48A39}" name="答案" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{B714E4EA-6852-3543-B39B-E2C294B836D5}" name="原始问题" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{49EA0A8F-1D74-C645-84CD-67A90CBC31A8}" name="同义问题1" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{488EFC21-F3C7-774E-B6EC-6D00F574E32A}" name="同义问题2" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{8149A516-FFD6-2246-BCDB-F4FAD2DE0040}" name="同义问题3" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{D538AB0A-23DD-0842-8BE8-E80E9D50E190}" name="同义问题4" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{9311298B-6E9F-B24E-8EF2-41182B8DB087}" name="同义问题5" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{7862B860-E0A6-8A45-8620-407F424BA6EE}" name="同义问题6" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18EA22AF-15B2-834F-99DE-495FFB9CC5E8}" name="表2" displayName="表2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="22">
+  <autoFilter ref="A1:I6" xr:uid="{4EA9FEFF-E609-2A4E-9BCB-BB8F8538145C}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{0D2D43C6-6D93-F045-9D97-2CB90545407D}" name="列1" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{D13816C6-FFD8-394F-931F-9BE0ED8E8F9D}" name="列2" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{FCA89074-E63A-7D44-9394-0A7C588C535D}" name="列3" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{8C5AA441-524A-0B46-8F1A-F0A416C6C292}" name="列4" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{AEB36D1A-732C-2747-9F52-39600404C4A3}" name="列5" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{C426E67C-B0B5-824F-A43D-179E52A077D2}" name="列6" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{D6F7DB87-4107-0C42-AEA6-E25EABC27A88}" name="列7"/>
+    <tableColumn id="8" xr3:uid="{2E152D30-D72C-1642-A88E-8244B6465572}" name="列8"/>
+    <tableColumn id="9" xr3:uid="{3D9C1E36-4B40-3144-95FA-6750120A8975}" name="列9" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F72FF18E-85BC-9E4C-8CDE-6BD8D66ED0E9}" name="表3" displayName="表3" ref="A1:I7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+  <autoFilter ref="A1:I7" xr:uid="{7EFCF6F0-AE2B-D946-8A15-D803C8B02088}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2304F46D-F08D-6D40-9BB4-7337F35437C4}" name="数据填写人姓名" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{DCA9EF55-C6EE-AF47-8743-1267509BFBBF}" name="答案" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{6815321E-95AB-AE49-B380-A8A46E3A26D9}" name="原始问题" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{08CA9FAB-B09F-1240-A3C0-3216ACFF974E}" name="同义问题1" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{9D591728-F90E-CB41-B950-0D3B9090FEFE}" name="同义问题2" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{8320E352-30E8-5045-A912-E6ABFE3B8624}" name="同义问题3" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{B0FCFE7D-F90A-1248-A37D-BCF6A08C2F5A}" name="同义问题4" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{7F49DCA6-F26A-D84F-9A00-B21EDE5545AB}" name="同义问题5" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{F2ADD9D0-E073-DF47-AC70-B16A72344A1D}" name="同义问题6" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5F6CF9E5-3A44-2644-BD91-A42B825A94E1}" name="表3_11" displayName="表3_11" ref="A1:I4" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I4" xr:uid="{7EFCF6F0-AE2B-D946-8A15-D803C8B02088}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{E5831A32-91A9-E74C-AC9F-383FEFFA298E}" name="数据填写人姓名" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{38CA0159-4C03-B141-8DE1-BE10B5F4C6D9}" name="答案" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1D1F1DCA-971E-0B4E-8C5A-18E4890F4E0E}" name="原始问题" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4452A521-FF1C-F841-8720-7F685237EAE2}" name="同义问题1" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{29AE166B-E6CA-F245-9103-116E0B7252C3}" name="同义问题2" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{BC0C9D1E-C2E7-8642-A697-4994BE819370}" name="同义问题3" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{868AD132-6A23-0140-BF27-A6FB16DDD84C}" name="同义问题4" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{061A4321-4CFB-8A45-B38C-F6A1B1ADEDE8}" name="同义问题5" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{F2FAA9E8-E5E1-434C-8C14-48E390B7E196}" name="同义问题6" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,10 +1568,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -753,16 +1620,16 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
@@ -774,41 +1641,31 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>19</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="15"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="22"/>
       <c r="E4" s="15"/>
       <c r="F4" s="17"/>
       <c r="G4" s="19"/>
@@ -818,16 +1675,14 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="19"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="22"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -837,16 +1692,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="19"/>
+      <c r="A6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="22"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -856,16 +1711,16 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="19"/>
+      <c r="A7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -875,16 +1730,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="19"/>
+      <c r="A8" s="15"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -894,16 +1740,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="19"/>
+      <c r="A9" s="15"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -913,15 +1750,9 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -932,15 +1763,9 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -950,42 +1775,19 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="14">
-      <c r="B14" s="8"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="13">
-      <c r="B15" s="23"/>
+    <row r="12" spans="1:11" ht="14">
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="13">
+      <c r="B13" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -997,113 +1799,137 @@
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="A1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>96</v>
+      <c r="A3" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>94</v>
+      <c r="A4" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1113,12 +1939,12 @@
       <c r="A6" s="15"/>
       <c r="B6" s="18"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="27"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
@@ -1233,7 +2059,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1314,7 +2140,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="28"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
@@ -1322,7 +2148,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="28"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1388,7 +2214,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1411,7 +2237,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="28"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1425,7 +2251,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="28"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1449,7 +2275,7 @@
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="28"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1463,7 +2289,7 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="27"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1476,7 +2302,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="28"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1501,7 +2327,7 @@
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="27"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1514,7 +2340,7 @@
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="27"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1540,7 +2366,7 @@
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="27"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1553,7 +2379,7 @@
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="27"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1566,7 +2392,7 @@
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="27"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1579,7 +2405,7 @@
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="27"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1592,7 +2418,7 @@
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="27"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1605,7 +2431,7 @@
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="27"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1618,7 +2444,7 @@
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="27"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1632,7 +2458,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="28"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1644,7 +2470,7 @@
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="27"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1670,7 +2496,7 @@
     <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="27"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1683,7 +2509,7 @@
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="27"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1696,7 +2522,7 @@
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="27"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1709,7 +2535,7 @@
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="27"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -1722,7 +2548,7 @@
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="27"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -1748,7 +2574,7 @@
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="27"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1800,7 +2626,7 @@
     <row r="59" spans="1:11" ht="14">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="27"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -1826,7 +2652,7 @@
     <row r="61" spans="1:11" ht="14">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="27"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -1839,7 +2665,7 @@
     <row r="62" spans="1:11" ht="14">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="27"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1852,7 +2678,7 @@
     <row r="63" spans="1:11" ht="14">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="27"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -1865,7 +2691,7 @@
     <row r="64" spans="1:11" ht="14">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="27"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -1878,7 +2704,7 @@
     <row r="65" spans="1:11" ht="14">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="27"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -1891,7 +2717,7 @@
     <row r="66" spans="1:11" ht="14">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="27"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -1904,7 +2730,7 @@
     <row r="67" spans="1:11" ht="14">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="27"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -1917,7 +2743,7 @@
     <row r="68" spans="1:11" ht="14">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="27"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -1930,7 +2756,7 @@
     <row r="69" spans="1:11" ht="14">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="27"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -1956,7 +2782,7 @@
     <row r="71" spans="1:11" ht="14">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="27"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -1969,7 +2795,7 @@
     <row r="72" spans="1:11" ht="14">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="27"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -1982,7 +2808,7 @@
     <row r="73" spans="1:11" ht="14">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="27"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -2008,7 +2834,7 @@
     <row r="75" spans="1:11" ht="14">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="27"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -2021,7 +2847,7 @@
     <row r="76" spans="1:11" ht="14">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="27"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -2034,7 +2860,7 @@
     <row r="77" spans="1:11" ht="14">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="27"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -2047,7 +2873,7 @@
     <row r="78" spans="1:11" ht="13">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="28"/>
+      <c r="C78" s="27"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -2060,7 +2886,7 @@
     <row r="79" spans="1:11" ht="14">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="27"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -2073,7 +2899,7 @@
     <row r="80" spans="1:11" ht="14">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="27"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -2099,7 +2925,7 @@
     <row r="82" spans="1:12" ht="14">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="27"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -2112,7 +2938,7 @@
     <row r="83" spans="1:12" ht="14">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="27"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -2125,7 +2951,7 @@
     <row r="84" spans="1:12" ht="14">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="27"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -2260,6 +3086,9 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2270,18 +3099,21 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -2309,80 +3141,92 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="B2" s="22" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>96</v>
+      <c r="A3" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E3" s="22"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>94</v>
+      <c r="A4" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="17"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
@@ -2441,10 +3285,169 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5EB092-623E-594D-8DCC-4787A558B76B}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2452,163 +3455,92 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>45</v>
+      <c r="A1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>47</v>
-      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="24" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>51</v>
-      </c>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="24"/>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>55</v>
-      </c>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>57</v>
-      </c>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>59</v>
-      </c>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2617,222 +3549,273 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>62</v>
+      <c r="A1" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>63</v>
+      <c r="A2" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>64</v>
+      <c r="A3" s="25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>65</v>
+      <c r="A4" s="25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>66</v>
+      <c r="A5" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A6" s="26" t="s">
-        <v>67</v>
+      <c r="A6" s="25" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>68</v>
+      <c r="A7" s="25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A8" s="26" t="s">
-        <v>69</v>
+      <c r="A8" s="25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>70</v>
+      <c r="A9" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A10" s="26" t="s">
-        <v>71</v>
+      <c r="A10" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>72</v>
+      <c r="A11" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>73</v>
+      <c r="A12" s="25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A13" s="26" t="s">
-        <v>74</v>
+      <c r="A13" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>75</v>
+      <c r="A14" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A18" s="26"/>
+      <c r="A18" s="25"/>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A21" s="26"/>
+      <c r="A21" s="25"/>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A22" s="26"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A24" s="26"/>
+      <c r="A24" s="25"/>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A25" s="26"/>
+      <c r="A25" s="25"/>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A26" s="26"/>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A27" s="26"/>
+      <c r="A27" s="25"/>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A28" s="26"/>
+      <c r="A28" s="25"/>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A29" s="26"/>
+      <c r="A29" s="25"/>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A30" s="26"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A31" s="26"/>
+      <c r="A31" s="25"/>
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A32" s="26"/>
+      <c r="A32" s="25"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A33" s="26"/>
+      <c r="A33" s="25"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A34" s="26"/>
+      <c r="A34" s="25"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A35" s="26"/>
+      <c r="A35" s="25"/>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A36" s="26"/>
+      <c r="A36" s="25"/>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A37" s="26"/>
+      <c r="A37" s="25"/>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A38" s="26"/>
+      <c r="A38" s="25"/>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A39" s="26"/>
+      <c r="A39" s="25"/>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A40" s="26"/>
+      <c r="A40" s="25"/>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A41" s="26"/>
+      <c r="A41" s="25"/>
     </row>
     <row r="42" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A42" s="26"/>
+      <c r="A42" s="25"/>
     </row>
     <row r="43" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A43" s="26"/>
+      <c r="A43" s="25"/>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A44" s="26"/>
+      <c r="A44" s="25"/>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A45" s="26"/>
+      <c r="A45" s="25"/>
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A46" s="26"/>
+      <c r="A46" s="25"/>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A47" s="26"/>
+      <c r="A47" s="25"/>
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A48" s="26"/>
+      <c r="A48" s="25"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A49" s="26"/>
+      <c r="A49" s="25"/>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A50" s="26"/>
+      <c r="A50" s="25"/>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A51" s="26"/>
+      <c r="A51" s="25"/>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A52" s="26"/>
+      <c r="A52" s="25"/>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A53" s="26"/>
+      <c r="A53" s="25"/>
     </row>
     <row r="54" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A54" s="26"/>
+      <c r="A54" s="25"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A55" s="26"/>
+      <c r="A55" s="25"/>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A56" s="26"/>
+      <c r="A56" s="25"/>
     </row>
     <row r="57" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A57" s="26"/>
+      <c r="A57" s="25"/>
     </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A58" s="26"/>
+      <c r="A58" s="25"/>
     </row>
     <row r="59" spans="1:1" ht="13">
-      <c r="A59" s="26"/>
+      <c r="A59" s="25"/>
     </row>
     <row r="60" spans="1:1" ht="13">
       <c r="A60" s="7"/>
